--- a/public/system/spreadsheet/spreadsheet.xlsx
+++ b/public/system/spreadsheet/spreadsheet.xlsx
@@ -17,7 +17,7 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="299">
+  <fonts count="285">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -2009,104 +2009,6 @@
       <sz val="10"/>
       <family val="1"/>
       <b val="true"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="12"/>
-      <family val="1"/>
-      <b val="false"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
@@ -2118,204 +2020,8 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="300">
+  <borders count="286">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -6310,7 +6016,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="290">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
@@ -7168,48 +6874,6 @@
     </xf>
     <xf borderId="285" numFmtId="0" fontId="284" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="286" numFmtId="0" fontId="285" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="287" numFmtId="0" fontId="286" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="288" numFmtId="0" fontId="287" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="289" numFmtId="0" fontId="288" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="290" numFmtId="0" fontId="289" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="291" numFmtId="0" fontId="290" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="292" numFmtId="0" fontId="291" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf borderId="293" numFmtId="0" fontId="292" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf borderId="294" numFmtId="0" fontId="293" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf borderId="295" numFmtId="0" fontId="294" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf borderId="296" numFmtId="0" fontId="295" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf borderId="297" numFmtId="0" fontId="296" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf borderId="298" numFmtId="0" fontId="297" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-    </xf>
-    <xf borderId="299" numFmtId="0" fontId="298" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
     </xf>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center"/>
@@ -7340,7 +7004,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -7361,19 +7025,6 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="10"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="6"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="6"/>
-    <col min="16" max="16" bestFit="false" customWidth="false"/>
-    <col min="17" max="17" bestFit="false" customWidth="false"/>
-    <col min="18" max="18" bestFit="false" customWidth="false"/>
-    <col min="19" max="19" bestFit="false" customWidth="false"/>
-    <col min="20" max="20" bestFit="false" customWidth="false"/>
-    <col min="21" max="21" bestFit="false" customWidth="false"/>
-    <col min="22" max="22" bestFit="false" customWidth="false"/>
-    <col min="23" max="23" bestFit="false" customWidth="false"/>
-    <col min="24" max="24" bestFit="false" customWidth="false"/>
-    <col min="25" max="25" bestFit="false" customWidth="false"/>
-    <col min="26" max="26" bestFit="false" customWidth="false"/>
-    <col min="27" max="27" bestFit="false" customWidth="false"/>
-    <col min="28" max="28" bestFit="false" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7887,30 +7538,6 @@
         <f>SUM(M9:M10)</f>
       </c>
       <c r="N11" s="0"/>
-      <c r="O11" s="0" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0" t="str">
-        <f>SUM(I9:I10)</f>
-      </c>
-      <c r="X11" s="0" t="str">
-        <f>SUM(J9:J10)</f>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0" t="str">
-        <f>SUM(M9:M10)</f>
-      </c>
-      <c r="AB11" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -7948,7 +7575,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -7969,19 +7596,6 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="10"/>
     <col min="14" max="14" bestFit="true" customWidth="true" width="6"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="6"/>
-    <col min="16" max="16" bestFit="false" customWidth="false"/>
-    <col min="17" max="17" bestFit="false" customWidth="false"/>
-    <col min="18" max="18" bestFit="false" customWidth="false"/>
-    <col min="19" max="19" bestFit="false" customWidth="false"/>
-    <col min="20" max="20" bestFit="false" customWidth="false"/>
-    <col min="21" max="21" bestFit="false" customWidth="false"/>
-    <col min="22" max="22" bestFit="false" customWidth="false"/>
-    <col min="23" max="23" bestFit="false" customWidth="false"/>
-    <col min="24" max="24" bestFit="false" customWidth="false"/>
-    <col min="25" max="25" bestFit="false" customWidth="false"/>
-    <col min="26" max="26" bestFit="false" customWidth="false"/>
-    <col min="27" max="27" bestFit="false" customWidth="false"/>
-    <col min="28" max="28" bestFit="false" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8425,41 +8039,17 @@
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0" t="str">
-        <f>SUM(I9:I10)</f>
+        <f>SUM(I9:I9)</f>
       </c>
       <c r="J10" s="0" t="str">
-        <f>SUM(J9:J10)</f>
+        <f>SUM(J9:J9)</f>
       </c>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0" t="str">
-        <f>SUM(M9:M10)</f>
+        <f>SUM(M9:M9)</f>
       </c>
       <c r="N10" s="0"/>
-      <c r="O10" s="0" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0" t="str">
-        <f>SUM(I9:I10)</f>
-      </c>
-      <c r="X10" s="0" t="str">
-        <f>SUM(J9:J10)</f>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0" t="str">
-        <f>SUM(M9:M10)</f>
-      </c>
-      <c r="AB10" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -8516,89 +8106,89 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H1" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I1" s="303" t="inlineStr">
+      <c r="A1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H1" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I1" s="289" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="303" t="inlineStr">
+      <c r="A2" s="289" t="inlineStr">
         <is>
           <t>INVOICE</t>
         </is>
       </c>
-      <c r="B2" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C2" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D2" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="303" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="303" t="inlineStr">
+      <c r="B2" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C2" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F2" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G2" s="289" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H2" s="289" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -8857,142 +8447,142 @@
       </c>
     </row>
     <row ht="55" customHeight="true" r="9">
-      <c r="A9" s="302" t="inlineStr">
+      <c r="A9" s="288" t="inlineStr">
         <is>
           <t>dsf</t>
         </is>
       </c>
-      <c r="B9" s="302" t="inlineStr">
+      <c r="B9" s="288" t="inlineStr">
         <is>
           <t>code1</t>
         </is>
       </c>
-      <c r="C9" s="302" t="inlineStr">
+      <c r="C9" s="288" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="D9" s="302" t="n">
+      <c r="D9" s="288" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="302" t="inlineStr">
+      <c r="E9" s="288" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="F9" s="302" t="n">
+      <c r="F9" s="288" t="n">
         <v>36</v>
       </c>
-      <c r="G9" s="302" t="n">
+      <c r="G9" s="288" t="n">
         <v>1.6</v>
       </c>
-      <c r="H9" s="302" t="n">
+      <c r="H9" s="288" t="n">
         <v>576</v>
       </c>
     </row>
     <row ht="55" customHeight="true" r="10">
-      <c r="A10" s="302" t="inlineStr">
+      <c r="A10" s="288" t="inlineStr">
         <is>
           <t>dsf</t>
         </is>
       </c>
-      <c r="B10" s="302" t="inlineStr">
+      <c r="B10" s="288" t="inlineStr">
         <is>
           <t>code2</t>
         </is>
       </c>
-      <c r="C10" s="302" t="inlineStr">
+      <c r="C10" s="288" t="inlineStr">
         <is>
           <t>desc2</t>
         </is>
       </c>
-      <c r="D10" s="302" t="n">
+      <c r="D10" s="288" t="n">
         <v>15</v>
       </c>
-      <c r="E10" s="302" t="inlineStr">
+      <c r="E10" s="288" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="F10" s="302" t="n">
+      <c r="F10" s="288" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="302" t="n">
+      <c r="G10" s="288" t="n">
         <v>1.8</v>
       </c>
-      <c r="H10" s="302" t="n">
+      <c r="H10" s="288" t="n">
         <v>540</v>
       </c>
     </row>
     <row ht="55" customHeight="true" r="11">
-      <c r="A11" s="302" t="inlineStr">
+      <c r="A11" s="288" t="inlineStr">
         <is>
           <t>MARDK</t>
         </is>
       </c>
-      <c r="B11" s="302" t="inlineStr">
+      <c r="B11" s="288" t="inlineStr">
         <is>
           <t>code11</t>
         </is>
       </c>
-      <c r="C11" s="302" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>desc11</t>
         </is>
       </c>
-      <c r="D11" s="302" t="n">
+      <c r="D11" s="288" t="n">
         <v>52</v>
       </c>
-      <c r="E11" s="302" t="inlineStr">
+      <c r="E11" s="288" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="F11" s="302" t="n">
+      <c r="F11" s="288" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="302" t="n">
+      <c r="G11" s="288" t="n">
         <v>12</v>
       </c>
-      <c r="H11" s="302" t="n">
+      <c r="H11" s="288" t="n">
         <v>12480</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="302" t="inlineStr">
+      <c r="A12" s="288" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="302" t="str">
+      <c r="B12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="288" t="str">
         <f>SUM(F9:F11)</f>
       </c>
-      <c r="G12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="302" t="str">
+      <c r="G12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="288" t="str">
         <f>SUM(H9:H11)</f>
       </c>
     </row>
@@ -9044,99 +8634,99 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I1" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J1" s="302" t="inlineStr">
+      <c r="A1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I1" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J1" s="288" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="302" t="inlineStr">
+      <c r="A2" s="288" t="inlineStr">
         <is>
           <t>INVOICE</t>
         </is>
       </c>
-      <c r="B2" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C2" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D2" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="302" t="inlineStr">
+      <c r="B2" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C2" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F2" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G2" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H2" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I2" s="288" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -9425,142 +9015,142 @@
       </c>
     </row>
     <row ht="55" customHeight="true" r="9">
-      <c r="A9" s="302" t="inlineStr">
+      <c r="A9" s="288" t="inlineStr">
         <is>
           <t>dsf</t>
         </is>
       </c>
-      <c r="B9" s="302" t="inlineStr">
+      <c r="B9" s="288" t="inlineStr">
         <is>
           <t>code1</t>
         </is>
       </c>
-      <c r="C9" s="302" t="inlineStr">
+      <c r="C9" s="288" t="inlineStr">
         <is>
           <t>desc</t>
         </is>
       </c>
-      <c r="D9" s="302" t="n">
+      <c r="D9" s="288" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="302" t="inlineStr">
+      <c r="E9" s="288" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="F9" s="302" t="n">
+      <c r="F9" s="288" t="n">
         <v>36</v>
       </c>
-      <c r="G9" s="302" t="n">
+      <c r="G9" s="288" t="n">
         <v>1.6</v>
       </c>
-      <c r="H9" s="302" t="n">
+      <c r="H9" s="288" t="n">
         <v>576</v>
       </c>
     </row>
     <row ht="55" customHeight="true" r="10">
-      <c r="A10" s="302" t="inlineStr">
+      <c r="A10" s="288" t="inlineStr">
         <is>
           <t>dsf</t>
         </is>
       </c>
-      <c r="B10" s="302" t="inlineStr">
+      <c r="B10" s="288" t="inlineStr">
         <is>
           <t>code2</t>
         </is>
       </c>
-      <c r="C10" s="302" t="inlineStr">
+      <c r="C10" s="288" t="inlineStr">
         <is>
           <t>desc2</t>
         </is>
       </c>
-      <c r="D10" s="302" t="n">
+      <c r="D10" s="288" t="n">
         <v>15</v>
       </c>
-      <c r="E10" s="302" t="inlineStr">
+      <c r="E10" s="288" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="F10" s="302" t="n">
+      <c r="F10" s="288" t="n">
         <v>20</v>
       </c>
-      <c r="G10" s="302" t="n">
+      <c r="G10" s="288" t="n">
         <v>1.8</v>
       </c>
-      <c r="H10" s="302" t="n">
+      <c r="H10" s="288" t="n">
         <v>540</v>
       </c>
     </row>
     <row ht="55" customHeight="true" r="11">
-      <c r="A11" s="302" t="inlineStr">
+      <c r="A11" s="288" t="inlineStr">
         <is>
           <t>MARDK</t>
         </is>
       </c>
-      <c r="B11" s="302" t="inlineStr">
+      <c r="B11" s="288" t="inlineStr">
         <is>
           <t>code11</t>
         </is>
       </c>
-      <c r="C11" s="302" t="inlineStr">
+      <c r="C11" s="288" t="inlineStr">
         <is>
           <t>desc11</t>
         </is>
       </c>
-      <c r="D11" s="302" t="n">
+      <c r="D11" s="288" t="n">
         <v>52</v>
       </c>
-      <c r="E11" s="302" t="inlineStr">
+      <c r="E11" s="288" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="F11" s="302" t="n">
+      <c r="F11" s="288" t="n">
         <v>20</v>
       </c>
-      <c r="G11" s="302" t="n">
+      <c r="G11" s="288" t="n">
         <v>12</v>
       </c>
-      <c r="H11" s="302" t="n">
+      <c r="H11" s="288" t="n">
         <v>12480</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="302" t="inlineStr">
+      <c r="A12" s="288" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="302" t="str">
+      <c r="B12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="288" t="str">
         <f>SUM(F9:F11)</f>
       </c>
-      <c r="G12" s="302" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H12" s="302" t="str">
+      <c r="G12" s="288" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="288" t="str">
         <f>SUM(H9:H11)</f>
       </c>
     </row>
